--- a/csv2sql/filedtest.xlsx
+++ b/csv2sql/filedtest.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\browdavi\Documents\GitHub\python\csv2sql\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="25516"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="12180"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23440" windowHeight="13860"/>
   </bookViews>
   <sheets>
     <sheet name="filedtest" sheetId="1" r:id="rId1"/>
@@ -17,12 +12,17 @@
   <definedNames>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="0" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="98">
   <si>
     <t xml:space="preserve">           Key is in</t>
   </si>
@@ -313,6 +313,9 @@
   </si>
   <si>
     <t xml:space="preserve">   idAssessmentTable</t>
+  </si>
+  <si>
+    <t>x</t>
   </si>
 </sst>
 </file>
@@ -941,7 +944,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -976,7 +979,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1153,7 +1156,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1161,18 +1164,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C93"/>
+  <dimension ref="A1:D93"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C80" sqref="C80"/>
+      <selection activeCell="D62" sqref="D62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1183,7 +1186,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -1194,7 +1197,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -1205,7 +1208,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -1216,7 +1219,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -1227,7 +1230,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
@@ -1237,8 +1240,11 @@
       <c r="C6" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D6" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -1249,7 +1255,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -1260,7 +1266,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -1271,7 +1277,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -1282,7 +1288,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -1293,7 +1299,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -1304,7 +1310,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4">
       <c r="A13" t="s">
         <v>16</v>
       </c>
@@ -1315,7 +1321,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4">
       <c r="A14" t="s">
         <v>17</v>
       </c>
@@ -1326,7 +1332,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4">
       <c r="A15" t="s">
         <v>18</v>
       </c>
@@ -1337,7 +1343,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4">
       <c r="A16" t="s">
         <v>19</v>
       </c>
@@ -1348,7 +1354,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4">
       <c r="A17" s="2" t="s">
         <v>20</v>
       </c>
@@ -1359,7 +1365,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
         <v>21</v>
       </c>
@@ -1369,8 +1375,11 @@
       <c r="C18" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D18" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" s="2" t="s">
         <v>22</v>
       </c>
@@ -1381,7 +1390,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4">
       <c r="A20" t="s">
         <v>23</v>
       </c>
@@ -1392,7 +1401,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4">
       <c r="A21" t="s">
         <v>24</v>
       </c>
@@ -1403,7 +1412,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4">
       <c r="A22" t="s">
         <v>25</v>
       </c>
@@ -1414,7 +1423,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4">
       <c r="A23" t="s">
         <v>26</v>
       </c>
@@ -1425,7 +1434,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4">
       <c r="A24" t="s">
         <v>27</v>
       </c>
@@ -1436,7 +1445,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4">
       <c r="A25" s="2" t="s">
         <v>28</v>
       </c>
@@ -1447,7 +1456,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4">
       <c r="A26" t="s">
         <v>29</v>
       </c>
@@ -1458,7 +1467,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4">
       <c r="A27" t="s">
         <v>30</v>
       </c>
@@ -1469,7 +1478,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4">
       <c r="A28" t="s">
         <v>31</v>
       </c>
@@ -1480,7 +1489,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4">
       <c r="A29" t="s">
         <v>32</v>
       </c>
@@ -1491,7 +1500,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4">
       <c r="A30" t="s">
         <v>33</v>
       </c>
@@ -1502,7 +1511,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4">
       <c r="A31" t="s">
         <v>34</v>
       </c>
@@ -1513,7 +1522,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4">
       <c r="A32" t="s">
         <v>35</v>
       </c>
@@ -1524,7 +1533,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3">
       <c r="A33" t="s">
         <v>36</v>
       </c>
@@ -1535,7 +1544,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3">
       <c r="A34" s="2" t="s">
         <v>37</v>
       </c>
@@ -1546,7 +1555,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3">
       <c r="A35" t="s">
         <v>38</v>
       </c>
@@ -1557,7 +1566,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3">
       <c r="A36" t="s">
         <v>39</v>
       </c>
@@ -1568,7 +1577,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3">
       <c r="A37" t="s">
         <v>40</v>
       </c>
@@ -1579,7 +1588,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3">
       <c r="A38" t="s">
         <v>41</v>
       </c>
@@ -1590,7 +1599,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3">
       <c r="A39" t="s">
         <v>42</v>
       </c>
@@ -1601,7 +1610,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3">
       <c r="A40" t="s">
         <v>43</v>
       </c>
@@ -1612,7 +1621,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3">
       <c r="A41" t="s">
         <v>44</v>
       </c>
@@ -1623,7 +1632,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3">
       <c r="A42" t="s">
         <v>45</v>
       </c>
@@ -1634,7 +1643,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3">
       <c r="A43" t="s">
         <v>46</v>
       </c>
@@ -1645,7 +1654,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3">
       <c r="A44" s="2" t="s">
         <v>47</v>
       </c>
@@ -1656,7 +1665,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3">
       <c r="A45" t="s">
         <v>48</v>
       </c>
@@ -1667,7 +1676,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3">
       <c r="A46" t="s">
         <v>49</v>
       </c>
@@ -1678,7 +1687,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3">
       <c r="A47" t="s">
         <v>50</v>
       </c>
@@ -1689,7 +1698,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3">
       <c r="A48" t="s">
         <v>51</v>
       </c>
@@ -1700,7 +1709,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4">
       <c r="A49" t="s">
         <v>52</v>
       </c>
@@ -1711,7 +1720,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4">
       <c r="A50" t="s">
         <v>53</v>
       </c>
@@ -1722,7 +1731,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4">
       <c r="A51" t="s">
         <v>54</v>
       </c>
@@ -1733,7 +1742,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4">
       <c r="A52" t="s">
         <v>55</v>
       </c>
@@ -1744,7 +1753,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4">
       <c r="A53" t="s">
         <v>56</v>
       </c>
@@ -1755,7 +1764,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4">
       <c r="A54" t="s">
         <v>57</v>
       </c>
@@ -1766,7 +1775,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4">
       <c r="A55" t="s">
         <v>58</v>
       </c>
@@ -1777,7 +1786,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4">
       <c r="A56" t="s">
         <v>59</v>
       </c>
@@ -1788,7 +1797,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4">
       <c r="A57" t="s">
         <v>60</v>
       </c>
@@ -1799,7 +1808,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4">
       <c r="A58" s="2" t="s">
         <v>61</v>
       </c>
@@ -1810,7 +1819,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4">
       <c r="A59" s="2" t="s">
         <v>62</v>
       </c>
@@ -1821,7 +1830,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4">
       <c r="A60" s="1" t="s">
         <v>63</v>
       </c>
@@ -1831,8 +1840,11 @@
       <c r="C60" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D60" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
       <c r="A61" s="1" t="s">
         <v>64</v>
       </c>
@@ -1842,8 +1854,11 @@
       <c r="C61" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D61" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
       <c r="A62" s="2" t="s">
         <v>65</v>
       </c>
@@ -1854,7 +1869,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4">
       <c r="A63" t="s">
         <v>66</v>
       </c>
@@ -1865,7 +1880,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4">
       <c r="A64" t="s">
         <v>67</v>
       </c>
@@ -1876,7 +1891,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3">
       <c r="A65" s="2" t="s">
         <v>68</v>
       </c>
@@ -1887,7 +1902,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3">
       <c r="A66" s="2" t="s">
         <v>69</v>
       </c>
@@ -1898,7 +1913,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3">
       <c r="A67" s="2" t="s">
         <v>70</v>
       </c>
@@ -1909,7 +1924,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3">
       <c r="A68" t="s">
         <v>71</v>
       </c>
@@ -1920,7 +1935,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3">
       <c r="A69" t="s">
         <v>72</v>
       </c>
@@ -1931,7 +1946,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3">
       <c r="A70" t="s">
         <v>73</v>
       </c>
@@ -1942,7 +1957,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3">
       <c r="A71" t="s">
         <v>74</v>
       </c>
@@ -1953,7 +1968,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3">
       <c r="A72" t="s">
         <v>75</v>
       </c>
@@ -1964,7 +1979,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3">
       <c r="A73" t="s">
         <v>76</v>
       </c>
@@ -1975,7 +1990,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3">
       <c r="A74" t="s">
         <v>77</v>
       </c>
@@ -1986,7 +2001,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:3">
       <c r="A75" s="2" t="s">
         <v>78</v>
       </c>
@@ -1997,7 +2012,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:3">
       <c r="A76" t="s">
         <v>79</v>
       </c>
@@ -2008,7 +2023,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:3">
       <c r="A77" t="s">
         <v>80</v>
       </c>
@@ -2019,7 +2034,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:3">
       <c r="A78" t="s">
         <v>81</v>
       </c>
@@ -2030,7 +2045,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:3">
       <c r="A79" t="s">
         <v>82</v>
       </c>
@@ -2041,7 +2056,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:3">
       <c r="A80" t="s">
         <v>83</v>
       </c>
@@ -2052,7 +2067,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:3">
       <c r="A81" t="s">
         <v>84</v>
       </c>
@@ -2063,7 +2078,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:3">
       <c r="A82" t="s">
         <v>85</v>
       </c>
@@ -2074,7 +2089,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:3">
       <c r="A83" t="s">
         <v>86</v>
       </c>
@@ -2085,7 +2100,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:3">
       <c r="A84" t="s">
         <v>87</v>
       </c>
@@ -2096,7 +2111,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:3">
       <c r="A85" t="s">
         <v>88</v>
       </c>
@@ -2107,7 +2122,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:3">
       <c r="A86" t="s">
         <v>89</v>
       </c>
@@ -2118,7 +2133,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:3">
       <c r="A87" t="s">
         <v>90</v>
       </c>
@@ -2129,7 +2144,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:3">
       <c r="A88" t="s">
         <v>91</v>
       </c>
@@ -2140,7 +2155,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:3">
       <c r="A89" t="s">
         <v>92</v>
       </c>
@@ -2151,7 +2166,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:3">
       <c r="A90" s="2" t="s">
         <v>93</v>
       </c>
@@ -2162,7 +2177,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:3">
       <c r="A91" t="s">
         <v>94</v>
       </c>
@@ -2173,7 +2188,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:3">
       <c r="A92" t="s">
         <v>95</v>
       </c>
@@ -2184,7 +2199,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:3">
       <c r="A93" s="2" t="s">
         <v>96</v>
       </c>
@@ -2197,5 +2212,10 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>